--- a/Data/All Data.xlsx
+++ b/Data/All Data.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="10515" windowHeight="6735" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="10515" windowHeight="6735" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Heavy Trucks" sheetId="1" r:id="rId1"/>
     <sheet name="Urban Car" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Trucks" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Urban Car'!$A$1:$D$1</definedName>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="62">
   <si>
     <t xml:space="preserve">Make </t>
   </si>
@@ -163,6 +163,48 @@
   </si>
   <si>
     <t>Forester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Truck Type </t>
+  </si>
+  <si>
+    <t>Two Axle Rigid GML</t>
+  </si>
+  <si>
+    <t>Two Axle Rigid Euro4</t>
+  </si>
+  <si>
+    <t>from : http://www.sustainablefreight.com.au/tools-and-programs/emission-calculators/truck-fuel-emissions-and-cost-calculator-and-comparison-tool</t>
+  </si>
+  <si>
+    <t>Three Axle Rigid GML</t>
+  </si>
+  <si>
+    <t>Three Axle Rigid Euro4</t>
+  </si>
+  <si>
+    <t>Six Axle Artic GML</t>
+  </si>
+  <si>
+    <t>Six Axle Artic HML (RFS)</t>
+  </si>
+  <si>
+    <t>Six Axle Artic CML (Non -RFS)</t>
+  </si>
+  <si>
+    <t>Six Axle Artic HML (Non -RFS)</t>
+  </si>
+  <si>
+    <t>Truck and Dog (6 Axle - NSW)</t>
+  </si>
+  <si>
+    <t>Truck and Dog (6 Axle - 45T)</t>
+  </si>
+  <si>
+    <t>Truck and Dog (7 Axle)</t>
+  </si>
+  <si>
+    <t>Truck and Dog (20m - PBS)</t>
   </si>
 </sst>
 </file>
@@ -504,7 +546,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,7 +703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -1367,12 +1409,166 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2">
+        <v>2.17</v>
+      </c>
+      <c r="C2">
+        <v>1230</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>2.17</v>
+      </c>
+      <c r="C3">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4">
+        <v>1.79</v>
+      </c>
+      <c r="C4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5">
+        <v>1.79</v>
+      </c>
+      <c r="C5">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6">
+        <v>1.06</v>
+      </c>
+      <c r="C6">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8">
+        <v>1.04</v>
+      </c>
+      <c r="C8">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10">
+        <v>1.02</v>
+      </c>
+      <c r="C10">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11">
+        <v>1.02</v>
+      </c>
+      <c r="C11">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12">
+        <v>0.98</v>
+      </c>
+      <c r="C12">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13">
+        <v>0.94</v>
+      </c>
+      <c r="C13">
+        <v>2830</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/All Data.xlsx
+++ b/Data/All Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="10515" windowHeight="6735" activeTab="2"/>
+    <workbookView xWindow="15120" yWindow="0" windowWidth="13620" windowHeight="11955" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Heavy Trucks" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="90">
   <si>
     <t xml:space="preserve">Make </t>
   </si>
@@ -39,9 +39,6 @@
     <t>Engine (horse power)</t>
   </si>
   <si>
-    <t>Fuel Cons (km/l)</t>
-  </si>
-  <si>
     <t>Autocar</t>
   </si>
   <si>
@@ -205,6 +202,93 @@
   </si>
   <si>
     <t>Truck and Dog (20m - PBS)</t>
+  </si>
+  <si>
+    <t>Fuel Cons (m/l)</t>
+  </si>
+  <si>
+    <t>Truck &amp; Dog (20m PBS CML)</t>
+  </si>
+  <si>
+    <t>19m B Double GML</t>
+  </si>
+  <si>
+    <t>19m B Double CML &amp; HML</t>
+  </si>
+  <si>
+    <t>B Double GML</t>
+  </si>
+  <si>
+    <t>B Double HML (RFS)</t>
+  </si>
+  <si>
+    <t>B Double CML (non-RFS)</t>
+  </si>
+  <si>
+    <t>B Double HML (non-RFS)</t>
+  </si>
+  <si>
+    <t>B Triple GML</t>
+  </si>
+  <si>
+    <t>B Triple HML (RFS)</t>
+  </si>
+  <si>
+    <t>B Triple CML (non-RFS)</t>
+  </si>
+  <si>
+    <t>B Triple HML (non-RFS)</t>
+  </si>
+  <si>
+    <t>AB Triple GML</t>
+  </si>
+  <si>
+    <t>AB Triple HML (RFS)</t>
+  </si>
+  <si>
+    <t>AB Triple CML (non-RFS)</t>
+  </si>
+  <si>
+    <t>AB Triple HML (non-RFS)</t>
+  </si>
+  <si>
+    <t>Type 1 Road Train GML</t>
+  </si>
+  <si>
+    <t>Type 1 Road Train HML (RFS)</t>
+  </si>
+  <si>
+    <t>Type 1 Road Train CML (non-RFS)</t>
+  </si>
+  <si>
+    <t>Type 1 Road Train HML (non-RFS)</t>
+  </si>
+  <si>
+    <t>Type 2 Road Train GML</t>
+  </si>
+  <si>
+    <t>Type 2 Road Train HML (RFS)</t>
+  </si>
+  <si>
+    <t>Type 2 Road Train CML (non-RFS)</t>
+  </si>
+  <si>
+    <t>Type 2 Road Train HML (non-RFS)</t>
+  </si>
+  <si>
+    <t>BAB Quad - GML</t>
+  </si>
+  <si>
+    <t>BAB Quad - HML (RFS)</t>
+  </si>
+  <si>
+    <t>BAB Quad - CML (non-RFS)</t>
+  </si>
+  <si>
+    <t>BAB Quad -  HML (non-RFS)</t>
+  </si>
+  <si>
+    <t>Fuel Cons for 100km</t>
   </si>
 </sst>
 </file>
@@ -240,8 +324,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,7 +632,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,13 +653,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -590,7 +676,7 @@
         <v>2004</v>
       </c>
       <c r="D2">
-        <v>1.4</v>
+        <v>1400</v>
       </c>
       <c r="E2">
         <v>1900</v>
@@ -613,7 +699,7 @@
         <v>2005</v>
       </c>
       <c r="D3">
-        <v>1.1000000000000001</v>
+        <v>1100</v>
       </c>
       <c r="E3">
         <v>2400</v>
@@ -627,16 +713,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
       </c>
       <c r="C4">
         <v>2008</v>
       </c>
       <c r="D4">
-        <v>0.9</v>
+        <v>900</v>
       </c>
       <c r="E4">
         <v>2800</v>
@@ -653,13 +739,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>2008</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E5">
         <v>2700</v>
@@ -673,16 +759,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>2010</v>
       </c>
       <c r="D6">
-        <v>1.05</v>
+        <v>1050</v>
       </c>
       <c r="E6">
         <v>2550</v>
@@ -703,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,24 +800,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -742,10 +828,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
       </c>
       <c r="C3">
         <v>2020</v>
@@ -756,10 +842,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
       </c>
       <c r="C4">
         <v>2020</v>
@@ -770,10 +856,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
         <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
       </c>
       <c r="C5">
         <v>2020</v>
@@ -784,10 +870,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
         <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
       </c>
       <c r="C6">
         <v>2020</v>
@@ -798,10 +884,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
         <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
       </c>
       <c r="C7">
         <v>2020</v>
@@ -812,10 +898,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
       </c>
       <c r="C8">
         <v>2020</v>
@@ -826,10 +912,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
         <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
       </c>
       <c r="C9">
         <v>2020</v>
@@ -840,10 +926,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>2020</v>
@@ -854,10 +940,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11">
         <v>2020</v>
@@ -868,10 +954,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12">
         <v>2020</v>
@@ -882,10 +968,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>2020</v>
@@ -896,10 +982,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
         <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
       </c>
       <c r="C14">
         <v>2020</v>
@@ -910,10 +996,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
         <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
       </c>
       <c r="C15">
         <v>2020</v>
@@ -924,7 +1010,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -938,7 +1024,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -952,7 +1038,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -966,10 +1052,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19">
         <v>2020</v>
@@ -980,10 +1066,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20">
         <v>2020</v>
@@ -994,10 +1080,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
         <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
       </c>
       <c r="C21">
         <v>2020</v>
@@ -1008,10 +1094,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
         <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
       </c>
       <c r="C22">
         <v>2020</v>
@@ -1022,10 +1108,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
         <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
       </c>
       <c r="C23">
         <v>2020</v>
@@ -1036,10 +1122,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24">
         <v>2020</v>
@@ -1050,10 +1136,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25">
         <v>2020</v>
@@ -1064,10 +1150,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26">
         <v>2020</v>
@@ -1078,10 +1164,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27">
         <v>2020</v>
@@ -1092,10 +1178,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
         <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
       </c>
       <c r="C28">
         <v>2020</v>
@@ -1106,10 +1192,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
         <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
       </c>
       <c r="C29">
         <v>2020</v>
@@ -1120,10 +1206,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
         <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>30</v>
       </c>
       <c r="C30">
         <v>2020</v>
@@ -1134,10 +1220,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
         <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>30</v>
       </c>
       <c r="C31">
         <v>2020</v>
@@ -1148,10 +1234,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
         <v>46</v>
-      </c>
-      <c r="B32" t="s">
-        <v>47</v>
       </c>
       <c r="C32">
         <v>2020</v>
@@ -1162,10 +1248,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" t="s">
         <v>46</v>
-      </c>
-      <c r="B33" t="s">
-        <v>47</v>
       </c>
       <c r="C33">
         <v>2020</v>
@@ -1176,10 +1262,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34">
         <v>2020</v>
@@ -1190,10 +1276,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35">
         <v>2020</v>
@@ -1204,10 +1290,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
         <v>17</v>
-      </c>
-      <c r="B36" t="s">
-        <v>18</v>
       </c>
       <c r="C36">
         <v>2020</v>
@@ -1218,10 +1304,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
         <v>17</v>
-      </c>
-      <c r="B37" t="s">
-        <v>18</v>
       </c>
       <c r="C37">
         <v>2020</v>
@@ -1232,10 +1318,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C38">
         <v>2020</v>
@@ -1246,10 +1332,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C39">
         <v>2020</v>
@@ -1260,10 +1346,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C40">
         <v>2020</v>
@@ -1274,10 +1360,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41">
         <v>2020</v>
@@ -1288,10 +1374,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C42">
         <v>2020</v>
@@ -1302,10 +1388,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C43">
         <v>2020</v>
@@ -1316,10 +1402,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C44">
         <v>2020</v>
@@ -1330,10 +1416,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C45">
         <v>2020</v>
@@ -1344,10 +1430,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C46">
         <v>2020</v>
@@ -1358,10 +1444,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C47">
         <v>2020</v>
@@ -1372,10 +1458,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" t="s">
         <v>37</v>
-      </c>
-      <c r="B48" t="s">
-        <v>38</v>
       </c>
       <c r="C48">
         <v>2020</v>
@@ -1386,10 +1472,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" t="s">
         <v>37</v>
-      </c>
-      <c r="B49" t="s">
-        <v>38</v>
       </c>
       <c r="C49">
         <v>2020</v>
@@ -1409,166 +1495,663 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>48</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="2">
+        <f>100000/D2</f>
+        <v>4347.826086956522</v>
+      </c>
+      <c r="C2" s="2">
+        <f>20/1000*38.6*69.2*D2</f>
+        <v>1228.7152000000001</v>
+      </c>
+      <c r="D2" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>49</v>
       </c>
-      <c r="B2">
-        <v>2.17</v>
-      </c>
-      <c r="C2">
-        <v>1230</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B3" s="2">
+        <f t="shared" ref="B3:B40" si="0">100000/D3</f>
+        <v>4347.826086956522</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C40" si="1">20/1000*38.6*69.2*D3</f>
+        <v>1228.7152000000001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B4" s="2">
+        <f t="shared" si="0"/>
+        <v>3571.4285714285716</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="1"/>
+        <v>1495.8272000000002</v>
+      </c>
+      <c r="D4" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" si="0"/>
+        <v>3571.4285714285716</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="1"/>
+        <v>1495.8272000000002</v>
+      </c>
+      <c r="D5" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
+        <v>2127.6595744680849</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="1"/>
+        <v>2510.8528000000001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="1"/>
+        <v>2671.1200000000003</v>
+      </c>
+      <c r="D7" s="1">
         <v>50</v>
       </c>
-      <c r="B3">
-        <v>2.17</v>
-      </c>
-      <c r="C3">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4">
-        <v>1.79</v>
-      </c>
-      <c r="C4">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>2083.3333333333335</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="1"/>
+        <v>2564.2752</v>
+      </c>
+      <c r="D8" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="1"/>
+        <v>2671.1200000000003</v>
+      </c>
+      <c r="D9" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>2040.8163265306123</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="1"/>
+        <v>2617.6976</v>
+      </c>
+      <c r="D10" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>2040.8163265306123</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="1"/>
+        <v>2617.6976</v>
+      </c>
+      <c r="D11" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>1960.7843137254902</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="1"/>
+        <v>2724.5424000000003</v>
+      </c>
+      <c r="D12" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>1886.7924528301887</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="1"/>
+        <v>2831.3872000000001</v>
+      </c>
+      <c r="D13" s="1">
         <v>53</v>
       </c>
-      <c r="B5">
-        <v>1.79</v>
-      </c>
-      <c r="C5">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6">
-        <v>1.06</v>
-      </c>
-      <c r="C6">
-        <v>2510</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>1818.1818181818182</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="1"/>
+        <v>2938.232</v>
+      </c>
+      <c r="D14" s="1">
         <v>55</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>2670</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8">
-        <v>1.04</v>
-      </c>
-      <c r="C8">
-        <v>2560</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>2670</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10">
-        <v>1.02</v>
-      </c>
-      <c r="C10">
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11">
-        <v>1.02</v>
-      </c>
-      <c r="C11">
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12">
-        <v>0.98</v>
-      </c>
-      <c r="C12">
-        <v>2720</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13">
-        <v>0.94</v>
-      </c>
-      <c r="C13">
-        <v>2830</v>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>1886.7924528301887</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="1"/>
+        <v>2831.3872000000001</v>
+      </c>
+      <c r="D15" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>1818.1818181818182</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="1"/>
+        <v>2938.232</v>
+      </c>
+      <c r="D16" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>1612.9032258064517</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="1"/>
+        <v>3312.1888000000004</v>
+      </c>
+      <c r="D17" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>1538.4615384615386</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="1"/>
+        <v>3472.4560000000001</v>
+      </c>
+      <c r="D18" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="2">
+        <f t="shared" si="0"/>
+        <v>1587.3015873015872</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="1"/>
+        <v>3365.6112000000003</v>
+      </c>
+      <c r="D19" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" si="0"/>
+        <v>1538.4615384615386</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="1"/>
+        <v>3472.4560000000001</v>
+      </c>
+      <c r="D20" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="2">
+        <f t="shared" si="0"/>
+        <v>1470.5882352941176</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="1"/>
+        <v>3632.7232000000004</v>
+      </c>
+      <c r="D21" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" si="0"/>
+        <v>1388.8888888888889</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="1"/>
+        <v>3846.4128000000001</v>
+      </c>
+      <c r="D22" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="2">
+        <f t="shared" si="0"/>
+        <v>1449.2753623188405</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="1"/>
+        <v>3686.1456000000003</v>
+      </c>
+      <c r="D23" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="2">
+        <f t="shared" si="0"/>
+        <v>1388.8888888888889</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="1"/>
+        <v>3846.4128000000001</v>
+      </c>
+      <c r="D24" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="2">
+        <f t="shared" si="0"/>
+        <v>1333.3333333333333</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="1"/>
+        <v>4006.6800000000003</v>
+      </c>
+      <c r="D25" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="2">
+        <f t="shared" si="0"/>
+        <v>1265.8227848101267</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="1"/>
+        <v>4220.3696</v>
+      </c>
+      <c r="D26" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="2">
+        <f t="shared" si="0"/>
+        <v>1315.7894736842106</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="1"/>
+        <v>4060.1024000000002</v>
+      </c>
+      <c r="D27" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="2">
+        <f t="shared" si="0"/>
+        <v>1265.8227848101267</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="1"/>
+        <v>4220.3696</v>
+      </c>
+      <c r="D28" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="2">
+        <f t="shared" si="0"/>
+        <v>1470.5882352941176</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="1"/>
+        <v>3632.7232000000004</v>
+      </c>
+      <c r="D29" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="2">
+        <f t="shared" si="0"/>
+        <v>1388.8888888888889</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="1"/>
+        <v>3846.4128000000001</v>
+      </c>
+      <c r="D30" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="2">
+        <f t="shared" si="0"/>
+        <v>1449.2753623188405</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" si="1"/>
+        <v>3686.1456000000003</v>
+      </c>
+      <c r="D31" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="2">
+        <f t="shared" si="0"/>
+        <v>1388.8888888888889</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" si="1"/>
+        <v>3846.4128000000001</v>
+      </c>
+      <c r="D32" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="2">
+        <f t="shared" si="0"/>
+        <v>1250</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" si="1"/>
+        <v>4273.7920000000004</v>
+      </c>
+      <c r="D33" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="2">
+        <f t="shared" si="0"/>
+        <v>1204.8192771084337</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" si="1"/>
+        <v>4434.0592000000006</v>
+      </c>
+      <c r="D34" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="2">
+        <f t="shared" si="0"/>
+        <v>1234.5679012345679</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="1"/>
+        <v>4327.2143999999998</v>
+      </c>
+      <c r="D35" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="2">
+        <f t="shared" si="0"/>
+        <v>1204.8192771084337</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="1"/>
+        <v>4434.0592000000006</v>
+      </c>
+      <c r="D36" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="2">
+        <f t="shared" si="0"/>
+        <v>1234.5679012345679</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="1"/>
+        <v>4327.2143999999998</v>
+      </c>
+      <c r="D37" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="2">
+        <f t="shared" si="0"/>
+        <v>1176.4705882352941</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="1"/>
+        <v>4540.9040000000005</v>
+      </c>
+      <c r="D38" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="2">
+        <f t="shared" si="0"/>
+        <v>1219.5121951219512</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="1"/>
+        <v>4380.6368000000002</v>
+      </c>
+      <c r="D39" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="2">
+        <f t="shared" si="0"/>
+        <v>1176.4705882352941</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="1"/>
+        <v>4540.9040000000005</v>
+      </c>
+      <c r="D40" s="1">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>